--- a/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/ERIS/5/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/ERIS/5/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exprivia.sharepoint.com/sites/DFEH-PS-FSE2.0adeguamenti/Documenti condivisi/Documenti Accreditamento/Accreditamento ERIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exprivia.sharepoint.com/sites/DFEH-PS-FSE2.0adeguamenti/Documenti condivisi/Documenti Accreditamento/Accreditamento ERIS/2023-04-06 - REVISIONE ACCREDITAMENTO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{DC21B97C-41D4-4328-A083-28BBC17E4B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96BA8872-FF47-49BC-B2BB-E25A3FBD0336}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="8_{DC21B97C-41D4-4328-A083-28BBC17E4B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F2AD184-0D8D-4717-9C67-A684C253523C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -24,17 +24,6 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhXj7RfszpgZKzxg8oD/Tet7lb94w=="/>
     </ext>
@@ -73,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="368">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -401,15 +390,6 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-03-15T10:42:52Z</t>
-  </si>
-  <si>
-    <t>2e7b5c49654a969c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.8993dec73081d993d1c040bfa75d01c83c46cdebbe954be040a4bc971f57d1c7.4aa6dd37a4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -421,15 +401,6 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-03-15T11:07:33Z</t>
-  </si>
-  <si>
-    <t>b7f8252e0da1f53a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.25ac52d9d55b24f03bcba9848b22cb7bd5aba9874502526f7bf3d452d0f4eeb1.c0abad7962^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT3</t>
   </si>
   <si>
@@ -439,14 +410,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non vengono gestite le sezioni opzionali:
-Conclusioni
-storia clinica
-precedenti esami eseguiti
-Suggerimenti per il medico prescrittore
-</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT4</t>
@@ -661,12 +624,6 @@
       </rPr>
       <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.</t>
     </r>
-  </si>
-  <si>
-    <t>2023-03-15T15:12:28Z</t>
-  </si>
-  <si>
-    <t>50644a2183bd78a9</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
@@ -736,12 +693,6 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
-    <t>2023-03-15T11:36:48Z</t>
-  </si>
-  <si>
-    <t>c29c72be9548c536</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
   </si>
   <si>
@@ -1605,14 +1556,44 @@
     <t>connection timeout</t>
   </si>
   <si>
-    <t>{"traceID":"50644a2183bd78a9","spanID":"50644a2183bd78a9","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il campo action_id non è valorizzato","status":403,"instance":"/jwt-mandatory-field-missing","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}</t>
-  </si>
-  <si>
     <t>{"traceID":"0564e912e6bdfb45","spanID":"0564e912e6bdfb45","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.50504.4.4.2a24979bd953684c5410f4d47dfb1e3892381368f21a4eacaf4caa239cd5a914.532ba481ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"traceID":"c29c72be9548c536","spanID":"c29c72be9548c536","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il codice fiscale nel campo sub non Þ corretto","status":403,"instance":"/jwt-mandatory-field-malformed","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}
+    <t>2023-04-06T11:44:57Z</t>
+  </si>
+  <si>
+    <t>78d8aeadd2a28fa8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.c518a7a4a7e8173e52a1902fecb5ccc7173447f76ce935fec78f5a8ab4a6b6b0.8bd18e274f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-06T11:41:03Z</t>
+  </si>
+  <si>
+    <t>ce09204be1847689</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.9f594e95fd0439c63f608ffe0436c89d41aef6fb3b716f86867118fba89e3fd1.736b5caa01^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non vengono gestite le sezioni opzionali:
+storia clinica
+precedenti esami eseguiti
+Suggerimenti per il medico prescrittore
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I parametri del token JWT possono essere valorizzati in maniera errata ma non possono essere mancanti. </t>
+  </si>
+  <si>
+    <t>2023-04-06T12:27:32Z</t>
+  </si>
+  <si>
+    <t>5b9ba52b0c7f2d90</t>
+  </si>
+  <si>
+    <t>"title":"Campo token JWT non valido.","detail":"Il codice fiscale nel campo sub non è corretto","status":403,"instance":"/jwt-mandatory-field-malformed"</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2581,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3752,10 +3733,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K84" sqref="K84"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4339,19 +4320,19 @@
         <v>68</v>
       </c>
       <c r="F19" s="34">
-        <v>45000</v>
+        <v>45022</v>
       </c>
       <c r="G19" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="J19" s="36" t="s">
         <v>69</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>72</v>
       </c>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
@@ -4377,25 +4358,25 @@
         <v>66</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F20" s="34">
-        <v>45000</v>
+        <v>45022</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
@@ -4421,20 +4402,20 @@
         <v>66</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
       <c r="J21" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="L21" s="36"/>
       <c r="M21" s="36"/>
@@ -4459,20 +4440,20 @@
         <v>66</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
       <c r="J22" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
@@ -4494,13 +4475,13 @@
         <v>44</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="35"/>
@@ -4528,13 +4509,13 @@
         <v>44</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="35"/>
@@ -4562,13 +4543,13 @@
         <v>44</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="35"/>
@@ -4596,13 +4577,13 @@
         <v>44</v>
       </c>
       <c r="C26" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>92</v>
-      </c>
       <c r="E26" s="33" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="35"/>
@@ -4630,13 +4611,13 @@
         <v>44</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="35"/>
@@ -4664,13 +4645,13 @@
         <v>44</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
@@ -4698,13 +4679,13 @@
         <v>44</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="35"/>
@@ -4732,13 +4713,13 @@
         <v>44</v>
       </c>
       <c r="C30" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>101</v>
-      </c>
       <c r="E30" s="33" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="35"/>
@@ -4766,13 +4747,13 @@
         <v>44</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="35"/>
@@ -4800,13 +4781,13 @@
         <v>44</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="35"/>
@@ -4834,13 +4815,13 @@
         <v>44</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="35"/>
@@ -4868,13 +4849,13 @@
         <v>44</v>
       </c>
       <c r="C34" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="32" t="s">
-        <v>110</v>
-      </c>
       <c r="E34" s="33" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="35"/>
@@ -4905,10 +4886,10 @@
         <v>45</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="35"/>
@@ -4925,7 +4906,7 @@
       <c r="R35" s="39"/>
       <c r="S35" s="37"/>
       <c r="T35" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4939,10 +4920,10 @@
         <v>57</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="35"/>
@@ -4959,10 +4940,10 @@
       <c r="R36" s="39"/>
       <c r="S36" s="37"/>
       <c r="T36" s="40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
         <v>31</v>
       </c>
@@ -4973,47 +4954,31 @@
         <v>66</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="34">
-        <v>45000</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="I37" s="35" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="M37" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="N37" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="O37" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="P37" s="36" t="s">
-        <v>365</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
       <c r="Q37" s="36"/>
       <c r="R37" s="39"/>
       <c r="S37" s="37"/>
       <c r="T37" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5024,13 +4989,13 @@
         <v>44</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="35"/>
@@ -5047,7 +5012,7 @@
       <c r="R38" s="39"/>
       <c r="S38" s="37"/>
       <c r="T38" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5058,13 +5023,13 @@
         <v>44</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="35"/>
@@ -5081,7 +5046,7 @@
       <c r="R39" s="39"/>
       <c r="S39" s="37"/>
       <c r="T39" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5092,13 +5057,13 @@
         <v>44</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="35"/>
@@ -5115,7 +5080,7 @@
       <c r="R40" s="39"/>
       <c r="S40" s="37"/>
       <c r="T40" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5129,10 +5094,10 @@
         <v>45</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="35"/>
@@ -5149,7 +5114,7 @@
       <c r="R41" s="39"/>
       <c r="S41" s="37"/>
       <c r="T41" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5163,10 +5128,10 @@
         <v>57</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="35"/>
@@ -5183,10 +5148,10 @@
       <c r="R42" s="39"/>
       <c r="S42" s="37"/>
       <c r="T42" s="40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
         <v>39</v>
       </c>
@@ -5197,47 +5162,47 @@
         <v>66</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F43" s="34">
-        <v>45000</v>
+        <v>45022</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>128</v>
+        <v>365</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>129</v>
+        <v>366</v>
       </c>
       <c r="I43" s="35" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K43" s="36"/>
       <c r="L43" s="36" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="M43" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N43" s="36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O43" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P43" s="36" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="Q43" s="36"/>
       <c r="R43" s="39"/>
       <c r="S43" s="37"/>
       <c r="T43" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5248,13 +5213,13 @@
         <v>44</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="35"/>
@@ -5271,7 +5236,7 @@
       <c r="R44" s="39"/>
       <c r="S44" s="37"/>
       <c r="T44" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5282,13 +5247,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="35"/>
@@ -5305,7 +5270,7 @@
       <c r="R45" s="39"/>
       <c r="S45" s="37"/>
       <c r="T45" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5316,13 +5281,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="35"/>
@@ -5339,7 +5304,7 @@
       <c r="R46" s="39"/>
       <c r="S46" s="37"/>
       <c r="T46" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5353,10 +5318,10 @@
         <v>45</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="35"/>
@@ -5371,11 +5336,11 @@
       <c r="P47" s="36"/>
       <c r="Q47" s="36"/>
       <c r="R47" s="39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S47" s="37"/>
       <c r="T47" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5389,10 +5354,10 @@
         <v>57</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="35"/>
@@ -5407,11 +5372,11 @@
       <c r="P48" s="36"/>
       <c r="Q48" s="36"/>
       <c r="R48" s="39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S48" s="37"/>
       <c r="T48" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5425,10 +5390,10 @@
         <v>66</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F49" s="34">
         <v>45000</v>
@@ -5437,29 +5402,29 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
       <c r="J49" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K49" s="36"/>
       <c r="L49" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M49" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N49" s="36" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="O49" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P49" s="36" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="Q49" s="36"/>
       <c r="R49" s="39"/>
       <c r="S49" s="37"/>
       <c r="T49" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5470,13 +5435,13 @@
         <v>44</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="35"/>
@@ -5491,11 +5456,11 @@
       <c r="P50" s="36"/>
       <c r="Q50" s="36"/>
       <c r="R50" s="39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S50" s="37"/>
       <c r="T50" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5506,13 +5471,13 @@
         <v>44</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="35"/>
@@ -5527,11 +5492,11 @@
       <c r="P51" s="36"/>
       <c r="Q51" s="36"/>
       <c r="R51" s="39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S51" s="37"/>
       <c r="T51" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5542,13 +5507,13 @@
         <v>44</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="35"/>
@@ -5563,11 +5528,11 @@
       <c r="P52" s="36"/>
       <c r="Q52" s="36"/>
       <c r="R52" s="39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S52" s="37"/>
       <c r="T52" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5581,10 +5546,10 @@
         <v>45</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="35"/>
@@ -5601,7 +5566,7 @@
       <c r="R53" s="39"/>
       <c r="S53" s="37"/>
       <c r="T53" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5615,10 +5580,10 @@
         <v>45</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="35"/>
@@ -5635,7 +5600,7 @@
       <c r="R54" s="39"/>
       <c r="S54" s="37"/>
       <c r="T54" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5649,10 +5614,10 @@
         <v>45</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="35"/>
@@ -5669,7 +5634,7 @@
       <c r="R55" s="39"/>
       <c r="S55" s="37"/>
       <c r="T55" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5683,10 +5648,10 @@
         <v>45</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="35"/>
@@ -5703,7 +5668,7 @@
       <c r="R56" s="39"/>
       <c r="S56" s="37"/>
       <c r="T56" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5717,10 +5682,10 @@
         <v>45</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F57" s="34"/>
       <c r="G57" s="35"/>
@@ -5737,7 +5702,7 @@
       <c r="R57" s="39"/>
       <c r="S57" s="37"/>
       <c r="T57" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5751,10 +5716,10 @@
         <v>45</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="35"/>
@@ -5771,7 +5736,7 @@
       <c r="R58" s="39"/>
       <c r="S58" s="37"/>
       <c r="T58" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5785,10 +5750,10 @@
         <v>45</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="35"/>
@@ -5805,7 +5770,7 @@
       <c r="R59" s="39"/>
       <c r="S59" s="37"/>
       <c r="T59" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5819,10 +5784,10 @@
         <v>45</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="35"/>
@@ -5839,7 +5804,7 @@
       <c r="R60" s="39"/>
       <c r="S60" s="37"/>
       <c r="T60" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5853,10 +5818,10 @@
         <v>45</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F61" s="34"/>
       <c r="G61" s="35"/>
@@ -5873,7 +5838,7 @@
       <c r="R61" s="39"/>
       <c r="S61" s="37"/>
       <c r="T61" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5887,10 +5852,10 @@
         <v>45</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="35"/>
@@ -5907,7 +5872,7 @@
       <c r="R62" s="39"/>
       <c r="S62" s="37"/>
       <c r="T62" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5921,10 +5886,10 @@
         <v>45</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F63" s="34"/>
       <c r="G63" s="35"/>
@@ -5941,7 +5906,7 @@
       <c r="R63" s="39"/>
       <c r="S63" s="37"/>
       <c r="T63" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5955,10 +5920,10 @@
         <v>57</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -5975,7 +5940,7 @@
       <c r="R64" s="39"/>
       <c r="S64" s="37"/>
       <c r="T64" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5989,10 +5954,10 @@
         <v>57</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="35"/>
@@ -6009,7 +5974,7 @@
       <c r="R65" s="39"/>
       <c r="S65" s="37"/>
       <c r="T65" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6023,10 +5988,10 @@
         <v>57</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="35"/>
@@ -6043,7 +6008,7 @@
       <c r="R66" s="39"/>
       <c r="S66" s="37"/>
       <c r="T66" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6057,10 +6022,10 @@
         <v>57</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="35"/>
@@ -6077,7 +6042,7 @@
       <c r="R67" s="39"/>
       <c r="S67" s="37"/>
       <c r="T67" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6091,10 +6056,10 @@
         <v>57</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="35"/>
@@ -6111,7 +6076,7 @@
       <c r="R68" s="39"/>
       <c r="S68" s="37"/>
       <c r="T68" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6125,10 +6090,10 @@
         <v>57</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="35"/>
@@ -6145,7 +6110,7 @@
       <c r="R69" s="39"/>
       <c r="S69" s="37"/>
       <c r="T69" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6159,10 +6124,10 @@
         <v>57</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="35"/>
@@ -6179,7 +6144,7 @@
       <c r="R70" s="39"/>
       <c r="S70" s="37"/>
       <c r="T70" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6193,10 +6158,10 @@
         <v>57</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="35"/>
@@ -6213,7 +6178,7 @@
       <c r="R71" s="39"/>
       <c r="S71" s="37"/>
       <c r="T71" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6227,10 +6192,10 @@
         <v>57</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="35"/>
@@ -6247,7 +6212,7 @@
       <c r="R72" s="39"/>
       <c r="S72" s="37"/>
       <c r="T72" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6261,10 +6226,10 @@
         <v>57</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="35"/>
@@ -6281,7 +6246,7 @@
       <c r="R73" s="39"/>
       <c r="S73" s="37"/>
       <c r="T73" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6295,10 +6260,10 @@
         <v>57</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="35"/>
@@ -6315,7 +6280,7 @@
       <c r="R74" s="39"/>
       <c r="S74" s="37"/>
       <c r="T74" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6329,10 +6294,10 @@
         <v>57</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="35"/>
@@ -6349,7 +6314,7 @@
       <c r="R75" s="39"/>
       <c r="S75" s="37"/>
       <c r="T75" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6363,20 +6328,20 @@
         <v>66</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
       <c r="J76" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K76" s="36" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="L76" s="36"/>
       <c r="M76" s="36"/>
@@ -6387,7 +6352,7 @@
       <c r="R76" s="39"/>
       <c r="S76" s="37"/>
       <c r="T76" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6401,20 +6366,20 @@
         <v>66</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
       <c r="I77" s="35"/>
       <c r="J77" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K77" s="36" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="L77" s="36"/>
       <c r="M77" s="36"/>
@@ -6425,7 +6390,7 @@
       <c r="R77" s="39"/>
       <c r="S77" s="37"/>
       <c r="T77" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6439,20 +6404,20 @@
         <v>66</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
       <c r="I78" s="35"/>
       <c r="J78" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="L78" s="36"/>
       <c r="M78" s="36"/>
@@ -6463,7 +6428,7 @@
       <c r="R78" s="39"/>
       <c r="S78" s="37"/>
       <c r="T78" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6477,20 +6442,20 @@
         <v>66</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
       <c r="J79" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K79" s="36" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="L79" s="36"/>
       <c r="M79" s="36"/>
@@ -6501,7 +6466,7 @@
       <c r="R79" s="39"/>
       <c r="S79" s="37"/>
       <c r="T79" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6515,20 +6480,20 @@
         <v>66</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
       <c r="I80" s="35"/>
       <c r="J80" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K80" s="36" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L80" s="36"/>
       <c r="M80" s="36"/>
@@ -6539,7 +6504,7 @@
       <c r="R80" s="39"/>
       <c r="S80" s="37"/>
       <c r="T80" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6553,20 +6518,20 @@
         <v>66</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
       <c r="J81" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K81" s="36" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L81" s="36"/>
       <c r="M81" s="36"/>
@@ -6577,7 +6542,7 @@
       <c r="R81" s="39"/>
       <c r="S81" s="37"/>
       <c r="T81" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6591,20 +6556,20 @@
         <v>66</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
       <c r="I82" s="35"/>
       <c r="J82" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K82" s="36" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="L82" s="36"/>
       <c r="M82" s="36"/>
@@ -6615,7 +6580,7 @@
       <c r="R82" s="39"/>
       <c r="S82" s="37"/>
       <c r="T82" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="345.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6629,47 +6594,47 @@
         <v>66</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F83" s="34">
         <v>45000</v>
       </c>
       <c r="G83" s="35" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H83" s="43" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="I83" s="35" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="J83" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K83" s="36"/>
       <c r="L83" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M83" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N83" s="36" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="O83" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P83" s="36" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="Q83" s="36"/>
       <c r="R83" s="39"/>
       <c r="S83" s="37"/>
       <c r="T83" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6683,20 +6648,20 @@
         <v>66</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
       <c r="J84" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K84" s="36" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="L84" s="36"/>
       <c r="M84" s="36"/>
@@ -6707,7 +6672,7 @@
       <c r="R84" s="39"/>
       <c r="S84" s="37"/>
       <c r="T84" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6721,20 +6686,20 @@
         <v>66</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
       <c r="J85" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="L85" s="36"/>
       <c r="M85" s="36"/>
@@ -6745,7 +6710,7 @@
       <c r="R85" s="39"/>
       <c r="S85" s="37"/>
       <c r="T85" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6759,20 +6724,20 @@
         <v>66</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
       <c r="I86" s="35"/>
       <c r="J86" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="L86" s="36"/>
       <c r="M86" s="36"/>
@@ -6783,7 +6748,7 @@
       <c r="R86" s="39"/>
       <c r="S86" s="37"/>
       <c r="T86" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6797,20 +6762,20 @@
         <v>66</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
       <c r="I87" s="35"/>
       <c r="J87" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K87" s="36" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="L87" s="36"/>
       <c r="M87" s="36"/>
@@ -6821,7 +6786,7 @@
       <c r="R87" s="39"/>
       <c r="S87" s="37"/>
       <c r="T87" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6835,20 +6800,20 @@
         <v>66</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
       <c r="I88" s="35"/>
       <c r="J88" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K88" s="36" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="L88" s="36"/>
       <c r="M88" s="36"/>
@@ -6859,7 +6824,7 @@
       <c r="R88" s="39"/>
       <c r="S88" s="37"/>
       <c r="T88" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6873,20 +6838,20 @@
         <v>66</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F89" s="34"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
       <c r="I89" s="35"/>
       <c r="J89" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K89" s="36" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L89" s="36"/>
       <c r="M89" s="36"/>
@@ -6897,7 +6862,7 @@
       <c r="R89" s="39"/>
       <c r="S89" s="37"/>
       <c r="T89" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6911,20 +6876,20 @@
         <v>66</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F90" s="34"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
       <c r="I90" s="35"/>
       <c r="J90" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K90" s="36" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L90" s="36"/>
       <c r="M90" s="36"/>
@@ -6935,7 +6900,7 @@
       <c r="R90" s="39"/>
       <c r="S90" s="37"/>
       <c r="T90" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6949,20 +6914,20 @@
         <v>66</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F91" s="34"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
       <c r="I91" s="35"/>
       <c r="J91" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K91" s="36" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
@@ -6973,7 +6938,7 @@
       <c r="R91" s="39"/>
       <c r="S91" s="37"/>
       <c r="T91" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6987,20 +6952,20 @@
         <v>66</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F92" s="34"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
       <c r="I92" s="35"/>
       <c r="J92" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K92" s="36" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L92" s="36"/>
       <c r="M92" s="36"/>
@@ -7011,7 +6976,7 @@
       <c r="R92" s="39"/>
       <c r="S92" s="37"/>
       <c r="T92" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7025,20 +6990,20 @@
         <v>66</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F93" s="34"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
       <c r="I93" s="35"/>
       <c r="J93" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K93" s="36" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="L93" s="36"/>
       <c r="M93" s="36"/>
@@ -7049,7 +7014,7 @@
       <c r="R93" s="39"/>
       <c r="S93" s="37"/>
       <c r="T93" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="120" x14ac:dyDescent="0.25">
@@ -7063,20 +7028,20 @@
         <v>66</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F94" s="34"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
       <c r="I94" s="35"/>
       <c r="J94" s="36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K94" s="36" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="L94" s="36"/>
       <c r="M94" s="36"/>
@@ -7087,7 +7052,7 @@
       <c r="R94" s="39"/>
       <c r="S94" s="37"/>
       <c r="T94" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7098,13 +7063,13 @@
         <v>44</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F95" s="34"/>
       <c r="G95" s="35"/>
@@ -7121,7 +7086,7 @@
       <c r="R95" s="39"/>
       <c r="S95" s="37"/>
       <c r="T95" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7132,13 +7097,13 @@
         <v>44</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F96" s="34"/>
       <c r="G96" s="35"/>
@@ -7155,7 +7120,7 @@
       <c r="R96" s="39"/>
       <c r="S96" s="37"/>
       <c r="T96" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -7166,13 +7131,13 @@
         <v>44</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F97" s="34"/>
       <c r="G97" s="35"/>
@@ -7189,7 +7154,7 @@
       <c r="R97" s="39"/>
       <c r="S97" s="37"/>
       <c r="T97" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7200,13 +7165,13 @@
         <v>44</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F98" s="34"/>
       <c r="G98" s="35"/>
@@ -7223,7 +7188,7 @@
       <c r="R98" s="39"/>
       <c r="S98" s="37"/>
       <c r="T98" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7234,13 +7199,13 @@
         <v>44</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="35"/>
@@ -7257,7 +7222,7 @@
       <c r="R99" s="39"/>
       <c r="S99" s="37"/>
       <c r="T99" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7268,13 +7233,13 @@
         <v>44</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F100" s="34"/>
       <c r="G100" s="35"/>
@@ -7291,7 +7256,7 @@
       <c r="R100" s="39"/>
       <c r="S100" s="37"/>
       <c r="T100" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -7302,13 +7267,13 @@
         <v>44</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E101" s="33" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F101" s="34"/>
       <c r="G101" s="35"/>
@@ -7325,7 +7290,7 @@
       <c r="R101" s="39"/>
       <c r="S101" s="37"/>
       <c r="T101" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7336,13 +7301,13 @@
         <v>44</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F102" s="34"/>
       <c r="G102" s="35"/>
@@ -7359,7 +7324,7 @@
       <c r="R102" s="39"/>
       <c r="S102" s="37"/>
       <c r="T102" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7370,13 +7335,13 @@
         <v>44</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="35"/>
@@ -7393,7 +7358,7 @@
       <c r="R103" s="39"/>
       <c r="S103" s="37"/>
       <c r="T103" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7404,13 +7369,13 @@
         <v>44</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E104" s="33" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="35"/>
@@ -7427,7 +7392,7 @@
       <c r="R104" s="39"/>
       <c r="S104" s="37"/>
       <c r="T104" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -7438,13 +7403,13 @@
         <v>44</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E105" s="33" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="35"/>
@@ -7461,7 +7426,7 @@
       <c r="R105" s="39"/>
       <c r="S105" s="37"/>
       <c r="T105" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7472,13 +7437,13 @@
         <v>44</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="35"/>
@@ -7495,7 +7460,7 @@
       <c r="R106" s="39"/>
       <c r="S106" s="37"/>
       <c r="T106" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7506,13 +7471,13 @@
         <v>44</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="35"/>
@@ -7529,7 +7494,7 @@
       <c r="R107" s="39"/>
       <c r="S107" s="37"/>
       <c r="T107" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7540,13 +7505,13 @@
         <v>44</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F108" s="34"/>
       <c r="G108" s="35"/>
@@ -7563,7 +7528,7 @@
       <c r="R108" s="39"/>
       <c r="S108" s="37"/>
       <c r="T108" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7574,13 +7539,13 @@
         <v>44</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="35"/>
@@ -7597,7 +7562,7 @@
       <c r="R109" s="39"/>
       <c r="S109" s="37"/>
       <c r="T109" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7608,13 +7573,13 @@
         <v>44</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F110" s="34"/>
       <c r="G110" s="35"/>
@@ -7631,7 +7596,7 @@
       <c r="R110" s="39"/>
       <c r="S110" s="37"/>
       <c r="T110" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -7642,13 +7607,13 @@
         <v>44</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="35"/>
@@ -7665,7 +7630,7 @@
       <c r="R111" s="39"/>
       <c r="S111" s="37"/>
       <c r="T111" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7676,13 +7641,13 @@
         <v>44</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F112" s="34"/>
       <c r="G112" s="35"/>
@@ -7699,7 +7664,7 @@
       <c r="R112" s="39"/>
       <c r="S112" s="37"/>
       <c r="T112" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7710,13 +7675,13 @@
         <v>44</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="35"/>
@@ -7733,7 +7698,7 @@
       <c r="R113" s="39"/>
       <c r="S113" s="37"/>
       <c r="T113" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7744,13 +7709,13 @@
         <v>44</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E114" s="33" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="35"/>
@@ -7767,7 +7732,7 @@
       <c r="R114" s="39"/>
       <c r="S114" s="37"/>
       <c r="T114" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7778,13 +7743,13 @@
         <v>44</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="35"/>
@@ -7801,7 +7766,7 @@
       <c r="R115" s="39"/>
       <c r="S115" s="37"/>
       <c r="T115" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7812,13 +7777,13 @@
         <v>44</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F116" s="34"/>
       <c r="G116" s="35"/>
@@ -7835,7 +7800,7 @@
       <c r="R116" s="39"/>
       <c r="S116" s="37"/>
       <c r="T116" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7846,13 +7811,13 @@
         <v>44</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D117" s="32" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E117" s="33" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="35"/>
@@ -7869,7 +7834,7 @@
       <c r="R117" s="39"/>
       <c r="S117" s="37"/>
       <c r="T117" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7880,13 +7845,13 @@
         <v>44</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E118" s="33" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="35"/>
@@ -7903,7 +7868,7 @@
       <c r="R118" s="39"/>
       <c r="S118" s="37"/>
       <c r="T118" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7914,13 +7879,13 @@
         <v>44</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F119" s="34"/>
       <c r="G119" s="35"/>
@@ -7937,7 +7902,7 @@
       <c r="R119" s="39"/>
       <c r="S119" s="37"/>
       <c r="T119" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7948,13 +7913,13 @@
         <v>44</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="35"/>
@@ -7971,7 +7936,7 @@
       <c r="R120" s="39"/>
       <c r="S120" s="37"/>
       <c r="T120" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7982,13 +7947,13 @@
         <v>44</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E121" s="33" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F121" s="34"/>
       <c r="G121" s="35"/>
@@ -8005,7 +7970,7 @@
       <c r="R121" s="39"/>
       <c r="S121" s="37"/>
       <c r="T121" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8016,13 +7981,13 @@
         <v>44</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F122" s="34"/>
       <c r="G122" s="35"/>
@@ -8039,7 +8004,7 @@
       <c r="R122" s="39"/>
       <c r="S122" s="37"/>
       <c r="T122" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -8050,13 +8015,13 @@
         <v>44</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F123" s="34"/>
       <c r="G123" s="35"/>
@@ -8073,7 +8038,7 @@
       <c r="R123" s="39"/>
       <c r="S123" s="37"/>
       <c r="T123" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -8084,13 +8049,13 @@
         <v>44</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F124" s="34"/>
       <c r="G124" s="35"/>
@@ -8107,7 +8072,7 @@
       <c r="R124" s="39"/>
       <c r="S124" s="37"/>
       <c r="T124" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -8118,13 +8083,13 @@
         <v>44</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="35"/>
@@ -8141,7 +8106,7 @@
       <c r="R125" s="39"/>
       <c r="S125" s="37"/>
       <c r="T125" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8152,13 +8117,13 @@
         <v>44</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F126" s="34"/>
       <c r="G126" s="35"/>
@@ -8175,7 +8140,7 @@
       <c r="R126" s="39"/>
       <c r="S126" s="37"/>
       <c r="T126" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -8186,13 +8151,13 @@
         <v>44</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F127" s="34"/>
       <c r="G127" s="35"/>
@@ -8209,7 +8174,7 @@
       <c r="R127" s="39"/>
       <c r="S127" s="37"/>
       <c r="T127" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8220,13 +8185,13 @@
         <v>44</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F128" s="34"/>
       <c r="G128" s="35"/>
@@ -8243,7 +8208,7 @@
       <c r="R128" s="39"/>
       <c r="S128" s="37"/>
       <c r="T128" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8254,13 +8219,13 @@
         <v>44</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F129" s="34"/>
       <c r="G129" s="35"/>
@@ -8277,7 +8242,7 @@
       <c r="R129" s="39"/>
       <c r="S129" s="37"/>
       <c r="T129" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -8288,13 +8253,13 @@
         <v>44</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D130" s="32" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F130" s="34"/>
       <c r="G130" s="35"/>
@@ -8311,7 +8276,7 @@
       <c r="R130" s="39"/>
       <c r="S130" s="37"/>
       <c r="T130" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8322,13 +8287,13 @@
         <v>44</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F131" s="34"/>
       <c r="G131" s="35"/>
@@ -8345,7 +8310,7 @@
       <c r="R131" s="39"/>
       <c r="S131" s="37"/>
       <c r="T131" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8356,13 +8321,13 @@
         <v>44</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D132" s="32" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F132" s="34"/>
       <c r="G132" s="35"/>
@@ -8379,7 +8344,7 @@
       <c r="R132" s="39"/>
       <c r="S132" s="37"/>
       <c r="T132" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8390,13 +8355,13 @@
         <v>44</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F133" s="34"/>
       <c r="G133" s="35"/>
@@ -8413,7 +8378,7 @@
       <c r="R133" s="39"/>
       <c r="S133" s="37"/>
       <c r="T133" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -8424,13 +8389,13 @@
         <v>44</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F134" s="34"/>
       <c r="G134" s="35"/>
@@ -8447,7 +8412,7 @@
       <c r="R134" s="39"/>
       <c r="S134" s="37"/>
       <c r="T134" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8458,13 +8423,13 @@
         <v>44</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="35"/>
@@ -8481,7 +8446,7 @@
       <c r="R135" s="39"/>
       <c r="S135" s="37"/>
       <c r="T135" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8492,13 +8457,13 @@
         <v>44</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D136" s="32" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F136" s="34"/>
       <c r="G136" s="35"/>
@@ -8515,7 +8480,7 @@
       <c r="R136" s="39"/>
       <c r="S136" s="37"/>
       <c r="T136" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8526,13 +8491,13 @@
         <v>44</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D137" s="32" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="35"/>
@@ -8549,7 +8514,7 @@
       <c r="R137" s="39"/>
       <c r="S137" s="37"/>
       <c r="T137" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -8560,13 +8525,13 @@
         <v>44</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F138" s="34"/>
       <c r="G138" s="35"/>
@@ -8583,7 +8548,7 @@
       <c r="R138" s="39"/>
       <c r="S138" s="37"/>
       <c r="T138" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8594,13 +8559,13 @@
         <v>44</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F139" s="34"/>
       <c r="G139" s="35"/>
@@ -8617,7 +8582,7 @@
       <c r="R139" s="39"/>
       <c r="S139" s="37"/>
       <c r="T139" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8628,13 +8593,13 @@
         <v>44</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F140" s="34"/>
       <c r="G140" s="35"/>
@@ -8651,7 +8616,7 @@
       <c r="R140" s="39"/>
       <c r="S140" s="37"/>
       <c r="T140" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8662,13 +8627,13 @@
         <v>44</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F141" s="34"/>
       <c r="G141" s="35"/>
@@ -8685,7 +8650,7 @@
       <c r="R141" s="39"/>
       <c r="S141" s="37"/>
       <c r="T141" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -8696,13 +8661,13 @@
         <v>44</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F142" s="34"/>
       <c r="G142" s="35"/>
@@ -8719,7 +8684,7 @@
       <c r="R142" s="39"/>
       <c r="S142" s="37"/>
       <c r="T142" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8730,13 +8695,13 @@
         <v>44</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F143" s="34"/>
       <c r="G143" s="35"/>
@@ -8753,7 +8718,7 @@
       <c r="R143" s="39"/>
       <c r="S143" s="37"/>
       <c r="T143" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8764,13 +8729,13 @@
         <v>44</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F144" s="34"/>
       <c r="G144" s="35"/>
@@ -8787,7 +8752,7 @@
       <c r="R144" s="39"/>
       <c r="S144" s="37"/>
       <c r="T144" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8798,13 +8763,13 @@
         <v>44</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="F145" s="34"/>
       <c r="G145" s="35"/>
@@ -8821,7 +8786,7 @@
       <c r="R145" s="39"/>
       <c r="S145" s="37"/>
       <c r="T145" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -8832,13 +8797,13 @@
         <v>44</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F146" s="34"/>
       <c r="G146" s="35"/>
@@ -8855,7 +8820,7 @@
       <c r="R146" s="39"/>
       <c r="S146" s="37"/>
       <c r="T146" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -8866,13 +8831,13 @@
         <v>44</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F147" s="34"/>
       <c r="G147" s="35"/>
@@ -8889,7 +8854,7 @@
       <c r="R147" s="39"/>
       <c r="S147" s="37"/>
       <c r="T147" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
@@ -23330,10 +23295,10 @@
         <v>25</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23341,13 +23306,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23355,13 +23320,13 @@
         <v>57</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23369,55 +23334,55 @@
         <v>66</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>360</v>
-      </c>
       <c r="D7" s="17" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24440,18 +24405,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25465,9 +25430,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25636,19 +25604,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25673,9 +25637,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/ERIS/5/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/ERIS/5/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exprivia.sharepoint.com/sites/DFEH-PS-FSE2.0adeguamenti/Documenti condivisi/Documenti Accreditamento/Accreditamento ERIS/2023-04-06 - REVISIONE ACCREDITAMENTO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="8_{DC21B97C-41D4-4328-A083-28BBC17E4B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F2AD184-0D8D-4717-9C67-A684C253523C}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="8_{DC21B97C-41D4-4328-A083-28BBC17E4B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD5C5242-A040-44E5-8CA5-7EBAE538B055}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="369">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1550,9 +1550,6 @@
     <t>il Tag &lt;addr&gt; non è gestito perchè opzionale e per via dell'ereditarietà dell'opzionalità.</t>
   </si>
   <si>
-    <t>Segnalato tramite sistema di monitoraggio</t>
-  </si>
-  <si>
     <t>connection timeout</t>
   </si>
   <si>
@@ -1594,6 +1591,18 @@
   </si>
   <si>
     <t>"title":"Campo token JWT non valido.","detail":"Il codice fiscale nel campo sub non è corretto","status":403,"instance":"/jwt-mandatory-field-malformed"</t>
+  </si>
+  <si>
+    <t>In caso di errore viene mostrato l'errore all'utente.
+E' possibile configurare se interrompere o portare a termine il processo di firma.
+L'errore viene tracciato nei relativi log.
+In backoffice si potrà correggere e procedere al reinvio o alla richiesta al medico di creare una nuova versione del referto.</t>
+  </si>
+  <si>
+    <t>E' possibile configurare i ms di timeout ed il numero di tentativi da effettuare prima di restituire l'errore di timeout all'utente.
+In questo caso viene mostrato l'errore all'utente.
+L'errore viene tracciato nei relativi log.
+In backoffice si potrà procedere al reinvio.</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2244,6 +2253,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2283,6 +2295,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3732,11 +3748,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3756,7 +3772,7 @@
     <col min="13" max="13" width="24.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.5703125" style="22" customWidth="1"/>
     <col min="15" max="15" width="29.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="58" style="22" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
@@ -3782,14 +3798,14 @@
       <c r="T1" s="24"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -3807,14 +3823,14 @@
       <c r="T2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -3832,12 +3848,12 @@
       <c r="T3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="26"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -3856,12 +3872,12 @@
       <c r="T4" s="24"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="53"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -3879,8 +3895,8 @@
       <c r="T5" s="24"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="27"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -4304,7 +4320,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31">
+      <c r="A19" s="62">
         <v>11</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -4323,13 +4339,13 @@
         <v>45022</v>
       </c>
       <c r="G19" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="I19" s="35" t="s">
         <v>358</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>359</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>69</v>
@@ -4367,13 +4383,13 @@
         <v>45022</v>
       </c>
       <c r="G20" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="H20" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="I20" s="35" t="s">
         <v>361</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>362</v>
       </c>
       <c r="J20" s="36" t="s">
         <v>69</v>
@@ -4415,7 +4431,7 @@
         <v>74</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L21" s="36"/>
       <c r="M21" s="36"/>
@@ -4967,7 +4983,7 @@
         <v>74</v>
       </c>
       <c r="K37" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
@@ -5171,10 +5187,10 @@
         <v>45022</v>
       </c>
       <c r="G43" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="H43" s="35" t="s">
         <v>365</v>
-      </c>
-      <c r="H43" s="35" t="s">
-        <v>366</v>
       </c>
       <c r="I43" s="35" t="s">
         <v>111</v>
@@ -5190,16 +5206,16 @@
         <v>74</v>
       </c>
       <c r="N43" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O43" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="P43" s="36" t="s">
-        <v>354</v>
+      <c r="P43" s="33" t="s">
+        <v>367</v>
       </c>
       <c r="Q43" s="36"/>
-      <c r="R43" s="39"/>
+      <c r="R43" s="49"/>
       <c r="S43" s="37"/>
       <c r="T43" s="40" t="s">
         <v>107</v>
@@ -5379,7 +5395,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
         <v>47</v>
       </c>
@@ -5412,13 +5428,13 @@
         <v>74</v>
       </c>
       <c r="N49" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O49" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="P49" s="36" t="s">
-        <v>354</v>
+      <c r="P49" s="33" t="s">
+        <v>368</v>
       </c>
       <c r="Q49" s="36"/>
       <c r="R49" s="39"/>
@@ -6622,13 +6638,13 @@
         <v>74</v>
       </c>
       <c r="N83" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O83" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="P83" s="36" t="s">
-        <v>354</v>
+      <c r="P83" s="33" t="s">
+        <v>367</v>
       </c>
       <c r="Q83" s="36"/>
       <c r="R83" s="39"/>
@@ -8177,7 +8193,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="31">
         <v>127</v>
       </c>
@@ -8211,7 +8227,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="31">
         <v>128</v>
       </c>
@@ -8245,7 +8261,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="31">
         <v>129</v>
       </c>
@@ -8279,7 +8295,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="31">
         <v>130</v>
       </c>
@@ -8313,7 +8329,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="31">
         <v>131</v>
       </c>
@@ -8347,7 +8363,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="31">
         <v>132</v>
       </c>
@@ -8381,7 +8397,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="31">
         <v>133</v>
       </c>
@@ -8415,7 +8431,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="31">
         <v>134</v>
       </c>
@@ -8449,7 +8465,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="31">
         <v>135</v>
       </c>
@@ -8483,7 +8499,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="31">
         <v>136</v>
       </c>
@@ -8517,7 +8533,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="31">
         <v>137</v>
       </c>
@@ -8551,7 +8567,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="31">
         <v>138</v>
       </c>
@@ -8585,7 +8601,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="31">
         <v>139</v>
       </c>
@@ -8619,7 +8635,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="31">
         <v>140</v>
       </c>
@@ -8653,7 +8669,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="31">
         <v>141</v>
       </c>
@@ -8687,7 +8703,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="31">
         <v>142</v>
       </c>
@@ -8721,7 +8737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="31">
         <v>143</v>
       </c>
@@ -8755,7 +8771,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="31">
         <v>144</v>
       </c>
@@ -8789,7 +8805,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="31">
         <v>145</v>
       </c>
@@ -8823,7 +8839,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="31">
         <v>146</v>
       </c>
@@ -25430,17 +25446,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100794258E7DE47134588D45098EBDB60F8" ma:contentTypeVersion="4" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2dbc010f7356a33b20da83a73eb190a5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf65ce-24cf-486b-995b-57ece8b70f4e" xmlns:ns3="c50f76eb-a136-4a5c-b9b3-fbcc59ed104d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbb2aea3e03736235287e3873b29b8db" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100794258E7DE47134588D45098EBDB60F8" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3194f2ccada4dbd4f766fc5cce730de0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf65ce-24cf-486b-995b-57ece8b70f4e" xmlns:ns3="c50f76eb-a136-4a5c-b9b3-fbcc59ed104d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b17b18953fe681e8c031b46ce8399c7" ns2:_="" ns3:_="">
     <xsd:import namespace="0bdf65ce-24cf-486b-995b-57ece8b70f4e"/>
     <xsd:import namespace="c50f76eb-a136-4a5c-b9b3-fbcc59ed104d"/>
     <xsd:element name="properties">
@@ -25453,6 +25466,8 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -25471,6 +25486,16 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="12" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -25604,21 +25629,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B29C747-7E08-4ADD-838E-37132E454A5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D366502-F098-4D33-AC4B-3B90E4A01E18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -25637,10 +25666,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/ERIS/5/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/ERIS/5/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exprivia.sharepoint.com/sites/DFEH-PS-FSE2.0adeguamenti/Documenti condivisi/Documenti Accreditamento/Accreditamento ERIS/2023-04-06 - REVISIONE ACCREDITAMENTO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="8_{DC21B97C-41D4-4328-A083-28BBC17E4B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD5C5242-A040-44E5-8CA5-7EBAE538B055}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="8_{DC21B97C-41D4-4328-A083-28BBC17E4B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1062AD2B-0953-4ADA-AA44-6C3E16353CCA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2256,6 +2256,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2295,10 +2299,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3749,10 +3749,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3798,14 +3798,14 @@
       <c r="T1" s="24"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -3823,14 +3823,14 @@
       <c r="T2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -3848,12 +3848,12 @@
       <c r="T3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="26"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -3872,12 +3872,12 @@
       <c r="T4" s="24"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="54"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -3895,8 +3895,8 @@
       <c r="T5" s="24"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="27"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -4320,7 +4320,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62">
+      <c r="A19" s="50">
         <v>11</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -5203,7 +5203,7 @@
         <v>69</v>
       </c>
       <c r="M43" s="36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N43" s="36" t="s">
         <v>366</v>
@@ -5425,7 +5425,7 @@
         <v>74</v>
       </c>
       <c r="M49" s="36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N49" s="36" t="s">
         <v>354</v>
@@ -6635,7 +6635,7 @@
         <v>74</v>
       </c>
       <c r="M83" s="36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N83" s="36" t="s">
         <v>355</v>
@@ -8193,7 +8193,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="31">
         <v>127</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="31">
         <v>128</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="31">
         <v>129</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="31">
         <v>130</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="31">
         <v>131</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="31">
         <v>132</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="31">
         <v>133</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="31">
         <v>134</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="31">
         <v>135</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="31">
         <v>136</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="31">
         <v>137</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="31">
         <v>138</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="31">
         <v>139</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="31">
         <v>140</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="31">
         <v>141</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="31">
         <v>142</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="31">
         <v>143</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="31">
         <v>144</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="31">
         <v>145</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="31">
         <v>146</v>
       </c>

--- a/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/ERIS/5/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/ERIS/5/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exprivia.sharepoint.com/sites/DFEH-PS-FSE2.0adeguamenti/Documenti condivisi/Documenti Accreditamento/Accreditamento ERIS/2023-04-06 - REVISIONE ACCREDITAMENTO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="8_{DC21B97C-41D4-4328-A083-28BBC17E4B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1062AD2B-0953-4ADA-AA44-6C3E16353CCA}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="8_{DC21B97C-41D4-4328-A083-28BBC17E4B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E5E8C80-0C79-4B24-A13B-4ECF5CA7FC7F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,9 +905,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>IdPaziente campo obbligatorio su applicativo</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
   </si>
   <si>
@@ -1581,9 +1578,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I parametri del token JWT possono essere valorizzati in maniera errata ma non possono essere mancanti. </t>
-  </si>
-  <si>
     <t>2023-04-06T12:27:32Z</t>
   </si>
   <si>
@@ -1603,6 +1597,12 @@
 In questo caso viene mostrato l'errore all'utente.
 L'errore viene tracciato nei relativi log.
 In backoffice si potrà procedere al reinvio.</t>
+  </si>
+  <si>
+    <t>confidentialityCode campo obbligatorio su applicativo</t>
+  </si>
+  <si>
+    <t>I parametri del token JWT possono essere valorizzati in maniera errata ma non possono essere mancanti.</t>
   </si>
 </sst>
 </file>
@@ -3749,10 +3749,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M49" sqref="M49"/>
+      <selection pane="bottomRight" activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4319,7 +4319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50">
         <v>11</v>
       </c>
@@ -4339,13 +4339,13 @@
         <v>45022</v>
       </c>
       <c r="G19" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="I19" s="35" t="s">
         <v>357</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>358</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>69</v>
@@ -4363,7 +4363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>12</v>
       </c>
@@ -4383,13 +4383,13 @@
         <v>45022</v>
       </c>
       <c r="G20" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="H20" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="I20" s="35" t="s">
         <v>360</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>361</v>
       </c>
       <c r="J20" s="36" t="s">
         <v>69</v>
@@ -4431,7 +4431,7 @@
         <v>74</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L21" s="36"/>
       <c r="M21" s="36"/>
@@ -4983,7 +4983,7 @@
         <v>74</v>
       </c>
       <c r="K37" s="36" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
@@ -5167,7 +5167,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
         <v>39</v>
       </c>
@@ -5187,10 +5187,10 @@
         <v>45022</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I43" s="35" t="s">
         <v>111</v>
@@ -5206,13 +5206,13 @@
         <v>69</v>
       </c>
       <c r="N43" s="36" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O43" s="36" t="s">
         <v>69</v>
       </c>
       <c r="P43" s="33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q43" s="36"/>
       <c r="R43" s="49"/>
@@ -5395,7 +5395,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
         <v>47</v>
       </c>
@@ -5428,13 +5428,13 @@
         <v>69</v>
       </c>
       <c r="N49" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O49" s="36" t="s">
         <v>69</v>
       </c>
       <c r="P49" s="33" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q49" s="36"/>
       <c r="R49" s="39"/>
@@ -6357,7 +6357,7 @@
         <v>74</v>
       </c>
       <c r="K76" s="36" t="s">
-        <v>177</v>
+        <v>367</v>
       </c>
       <c r="L76" s="36"/>
       <c r="M76" s="36"/>
@@ -6382,10 +6382,10 @@
         <v>66</v>
       </c>
       <c r="D77" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" s="33" t="s">
         <v>178</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>179</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="35"/>
@@ -6395,7 +6395,7 @@
         <v>74</v>
       </c>
       <c r="K77" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L77" s="36"/>
       <c r="M77" s="36"/>
@@ -6420,10 +6420,10 @@
         <v>66</v>
       </c>
       <c r="D78" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" s="33" t="s">
         <v>181</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>182</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="35"/>
@@ -6433,7 +6433,7 @@
         <v>74</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L78" s="36"/>
       <c r="M78" s="36"/>
@@ -6458,10 +6458,10 @@
         <v>66</v>
       </c>
       <c r="D79" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" s="33" t="s">
         <v>184</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>185</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="35"/>
@@ -6471,7 +6471,7 @@
         <v>74</v>
       </c>
       <c r="K79" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L79" s="36"/>
       <c r="M79" s="36"/>
@@ -6496,10 +6496,10 @@
         <v>66</v>
       </c>
       <c r="D80" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" s="33" t="s">
         <v>186</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>187</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="35"/>
@@ -6509,7 +6509,7 @@
         <v>74</v>
       </c>
       <c r="K80" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L80" s="36"/>
       <c r="M80" s="36"/>
@@ -6534,10 +6534,10 @@
         <v>66</v>
       </c>
       <c r="D81" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="33" t="s">
         <v>189</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>190</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="35"/>
@@ -6547,7 +6547,7 @@
         <v>74</v>
       </c>
       <c r="K81" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L81" s="36"/>
       <c r="M81" s="36"/>
@@ -6572,10 +6572,10 @@
         <v>66</v>
       </c>
       <c r="D82" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" s="33" t="s">
         <v>192</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>193</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="35"/>
@@ -6585,7 +6585,7 @@
         <v>74</v>
       </c>
       <c r="K82" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L82" s="36"/>
       <c r="M82" s="36"/>
@@ -6599,7 +6599,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="345.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="345.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="31">
         <v>82</v>
       </c>
@@ -6610,22 +6610,22 @@
         <v>66</v>
       </c>
       <c r="D83" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" s="33" t="s">
         <v>195</v>
-      </c>
-      <c r="E83" s="33" t="s">
-        <v>196</v>
       </c>
       <c r="F83" s="34">
         <v>45000</v>
       </c>
       <c r="G83" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="H83" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="H83" s="43" t="s">
+      <c r="I83" s="35" t="s">
         <v>198</v>
-      </c>
-      <c r="I83" s="35" t="s">
-        <v>199</v>
       </c>
       <c r="J83" s="36" t="s">
         <v>69</v>
@@ -6638,13 +6638,13 @@
         <v>69</v>
       </c>
       <c r="N83" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O83" s="36" t="s">
         <v>69</v>
       </c>
       <c r="P83" s="33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q83" s="36"/>
       <c r="R83" s="39"/>
@@ -6664,10 +6664,10 @@
         <v>66</v>
       </c>
       <c r="D84" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="33" t="s">
         <v>200</v>
-      </c>
-      <c r="E84" s="33" t="s">
-        <v>201</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="35"/>
@@ -6677,7 +6677,7 @@
         <v>74</v>
       </c>
       <c r="K84" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L84" s="36"/>
       <c r="M84" s="36"/>
@@ -6702,10 +6702,10 @@
         <v>66</v>
       </c>
       <c r="D85" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="33" t="s">
         <v>203</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>204</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="35"/>
@@ -6715,7 +6715,7 @@
         <v>74</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L85" s="36"/>
       <c r="M85" s="36"/>
@@ -6740,10 +6740,10 @@
         <v>66</v>
       </c>
       <c r="D86" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="33" t="s">
         <v>206</v>
-      </c>
-      <c r="E86" s="33" t="s">
-        <v>207</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="35"/>
@@ -6753,7 +6753,7 @@
         <v>74</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L86" s="36"/>
       <c r="M86" s="36"/>
@@ -6778,10 +6778,10 @@
         <v>66</v>
       </c>
       <c r="D87" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" s="33" t="s">
         <v>209</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>210</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="35"/>
@@ -6791,7 +6791,7 @@
         <v>74</v>
       </c>
       <c r="K87" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L87" s="36"/>
       <c r="M87" s="36"/>
@@ -6816,10 +6816,10 @@
         <v>66</v>
       </c>
       <c r="D88" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E88" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="E88" s="33" t="s">
-        <v>213</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="35"/>
@@ -6829,7 +6829,7 @@
         <v>74</v>
       </c>
       <c r="K88" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L88" s="36"/>
       <c r="M88" s="36"/>
@@ -6854,10 +6854,10 @@
         <v>66</v>
       </c>
       <c r="D89" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" s="33" t="s">
         <v>215</v>
-      </c>
-      <c r="E89" s="33" t="s">
-        <v>216</v>
       </c>
       <c r="F89" s="34"/>
       <c r="G89" s="35"/>
@@ -6867,7 +6867,7 @@
         <v>74</v>
       </c>
       <c r="K89" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L89" s="36"/>
       <c r="M89" s="36"/>
@@ -6892,10 +6892,10 @@
         <v>66</v>
       </c>
       <c r="D90" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E90" s="33" t="s">
         <v>218</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>219</v>
       </c>
       <c r="F90" s="34"/>
       <c r="G90" s="35"/>
@@ -6905,7 +6905,7 @@
         <v>74</v>
       </c>
       <c r="K90" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L90" s="36"/>
       <c r="M90" s="36"/>
@@ -6930,10 +6930,10 @@
         <v>66</v>
       </c>
       <c r="D91" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" s="33" t="s">
         <v>220</v>
-      </c>
-      <c r="E91" s="33" t="s">
-        <v>221</v>
       </c>
       <c r="F91" s="34"/>
       <c r="G91" s="35"/>
@@ -6943,7 +6943,7 @@
         <v>74</v>
       </c>
       <c r="K91" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
@@ -6968,10 +6968,10 @@
         <v>66</v>
       </c>
       <c r="D92" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E92" s="33" t="s">
         <v>222</v>
-      </c>
-      <c r="E92" s="33" t="s">
-        <v>223</v>
       </c>
       <c r="F92" s="34"/>
       <c r="G92" s="35"/>
@@ -6981,7 +6981,7 @@
         <v>74</v>
       </c>
       <c r="K92" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L92" s="36"/>
       <c r="M92" s="36"/>
@@ -7006,10 +7006,10 @@
         <v>66</v>
       </c>
       <c r="D93" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="E93" s="33" t="s">
         <v>224</v>
-      </c>
-      <c r="E93" s="33" t="s">
-        <v>225</v>
       </c>
       <c r="F93" s="34"/>
       <c r="G93" s="35"/>
@@ -7019,7 +7019,7 @@
         <v>74</v>
       </c>
       <c r="K93" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L93" s="36"/>
       <c r="M93" s="36"/>
@@ -7044,10 +7044,10 @@
         <v>66</v>
       </c>
       <c r="D94" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="E94" s="33" t="s">
         <v>227</v>
-      </c>
-      <c r="E94" s="33" t="s">
-        <v>228</v>
       </c>
       <c r="F94" s="34"/>
       <c r="G94" s="35"/>
@@ -7057,7 +7057,7 @@
         <v>74</v>
       </c>
       <c r="K94" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L94" s="36"/>
       <c r="M94" s="36"/>
@@ -7082,10 +7082,10 @@
         <v>78</v>
       </c>
       <c r="D95" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E95" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="E95" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="F95" s="34"/>
       <c r="G95" s="35"/>
@@ -7116,10 +7116,10 @@
         <v>78</v>
       </c>
       <c r="D96" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="E96" s="33" t="s">
         <v>232</v>
-      </c>
-      <c r="E96" s="33" t="s">
-        <v>233</v>
       </c>
       <c r="F96" s="34"/>
       <c r="G96" s="35"/>
@@ -7150,10 +7150,10 @@
         <v>78</v>
       </c>
       <c r="D97" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="E97" s="33" t="s">
         <v>234</v>
-      </c>
-      <c r="E97" s="33" t="s">
-        <v>235</v>
       </c>
       <c r="F97" s="34"/>
       <c r="G97" s="35"/>
@@ -7184,10 +7184,10 @@
         <v>78</v>
       </c>
       <c r="D98" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="E98" s="33" t="s">
         <v>236</v>
-      </c>
-      <c r="E98" s="33" t="s">
-        <v>237</v>
       </c>
       <c r="F98" s="34"/>
       <c r="G98" s="35"/>
@@ -7218,10 +7218,10 @@
         <v>78</v>
       </c>
       <c r="D99" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E99" s="33" t="s">
         <v>238</v>
-      </c>
-      <c r="E99" s="33" t="s">
-        <v>239</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="35"/>
@@ -7252,10 +7252,10 @@
         <v>78</v>
       </c>
       <c r="D100" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="E100" s="33" t="s">
         <v>240</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>241</v>
       </c>
       <c r="F100" s="34"/>
       <c r="G100" s="35"/>
@@ -7286,10 +7286,10 @@
         <v>78</v>
       </c>
       <c r="D101" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="E101" s="33" t="s">
         <v>242</v>
-      </c>
-      <c r="E101" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="F101" s="34"/>
       <c r="G101" s="35"/>
@@ -7320,10 +7320,10 @@
         <v>78</v>
       </c>
       <c r="D102" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E102" s="33" t="s">
         <v>244</v>
-      </c>
-      <c r="E102" s="33" t="s">
-        <v>245</v>
       </c>
       <c r="F102" s="34"/>
       <c r="G102" s="35"/>
@@ -7354,10 +7354,10 @@
         <v>78</v>
       </c>
       <c r="D103" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="E103" s="33" t="s">
         <v>246</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>247</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="35"/>
@@ -7388,10 +7388,10 @@
         <v>78</v>
       </c>
       <c r="D104" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="E104" s="33" t="s">
         <v>248</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>249</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="35"/>
@@ -7422,10 +7422,10 @@
         <v>78</v>
       </c>
       <c r="D105" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="E105" s="33" t="s">
         <v>250</v>
-      </c>
-      <c r="E105" s="33" t="s">
-        <v>251</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="35"/>
@@ -7456,10 +7456,10 @@
         <v>78</v>
       </c>
       <c r="D106" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="E106" s="33" t="s">
         <v>252</v>
-      </c>
-      <c r="E106" s="33" t="s">
-        <v>253</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="35"/>
@@ -7490,10 +7490,10 @@
         <v>78</v>
       </c>
       <c r="D107" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="E107" s="33" t="s">
         <v>254</v>
-      </c>
-      <c r="E107" s="33" t="s">
-        <v>255</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="35"/>
@@ -7524,10 +7524,10 @@
         <v>87</v>
       </c>
       <c r="D108" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E108" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="E108" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="F108" s="34"/>
       <c r="G108" s="35"/>
@@ -7558,10 +7558,10 @@
         <v>87</v>
       </c>
       <c r="D109" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E109" s="33" t="s">
         <v>258</v>
-      </c>
-      <c r="E109" s="33" t="s">
-        <v>259</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="35"/>
@@ -7592,10 +7592,10 @@
         <v>87</v>
       </c>
       <c r="D110" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="E110" s="33" t="s">
         <v>260</v>
-      </c>
-      <c r="E110" s="33" t="s">
-        <v>261</v>
       </c>
       <c r="F110" s="34"/>
       <c r="G110" s="35"/>
@@ -7626,10 +7626,10 @@
         <v>87</v>
       </c>
       <c r="D111" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="E111" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="E111" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="35"/>
@@ -7660,10 +7660,10 @@
         <v>87</v>
       </c>
       <c r="D112" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="E112" s="33" t="s">
         <v>264</v>
-      </c>
-      <c r="E112" s="33" t="s">
-        <v>265</v>
       </c>
       <c r="F112" s="34"/>
       <c r="G112" s="35"/>
@@ -7694,10 +7694,10 @@
         <v>87</v>
       </c>
       <c r="D113" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="E113" s="33" t="s">
         <v>266</v>
-      </c>
-      <c r="E113" s="33" t="s">
-        <v>267</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="35"/>
@@ -7728,10 +7728,10 @@
         <v>87</v>
       </c>
       <c r="D114" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="E114" s="33" t="s">
         <v>268</v>
-      </c>
-      <c r="E114" s="33" t="s">
-        <v>269</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="35"/>
@@ -7762,10 +7762,10 @@
         <v>87</v>
       </c>
       <c r="D115" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="E115" s="33" t="s">
         <v>270</v>
-      </c>
-      <c r="E115" s="33" t="s">
-        <v>271</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="35"/>
@@ -7796,10 +7796,10 @@
         <v>87</v>
       </c>
       <c r="D116" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="E116" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="E116" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="F116" s="34"/>
       <c r="G116" s="35"/>
@@ -7830,10 +7830,10 @@
         <v>87</v>
       </c>
       <c r="D117" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E117" s="33" t="s">
         <v>274</v>
-      </c>
-      <c r="E117" s="33" t="s">
-        <v>275</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="35"/>
@@ -7864,10 +7864,10 @@
         <v>87</v>
       </c>
       <c r="D118" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E118" s="33" t="s">
         <v>276</v>
-      </c>
-      <c r="E118" s="33" t="s">
-        <v>277</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="35"/>
@@ -7898,10 +7898,10 @@
         <v>87</v>
       </c>
       <c r="D119" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="E119" s="33" t="s">
         <v>278</v>
-      </c>
-      <c r="E119" s="33" t="s">
-        <v>279</v>
       </c>
       <c r="F119" s="34"/>
       <c r="G119" s="35"/>
@@ -7932,10 +7932,10 @@
         <v>87</v>
       </c>
       <c r="D120" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="E120" s="33" t="s">
         <v>280</v>
-      </c>
-      <c r="E120" s="33" t="s">
-        <v>281</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="35"/>
@@ -7966,10 +7966,10 @@
         <v>87</v>
       </c>
       <c r="D121" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="E121" s="33" t="s">
         <v>282</v>
-      </c>
-      <c r="E121" s="33" t="s">
-        <v>283</v>
       </c>
       <c r="F121" s="34"/>
       <c r="G121" s="35"/>
@@ -8000,10 +8000,10 @@
         <v>87</v>
       </c>
       <c r="D122" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E122" s="33" t="s">
         <v>284</v>
-      </c>
-      <c r="E122" s="33" t="s">
-        <v>285</v>
       </c>
       <c r="F122" s="34"/>
       <c r="G122" s="35"/>
@@ -8034,10 +8034,10 @@
         <v>96</v>
       </c>
       <c r="D123" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="E123" s="33" t="s">
         <v>286</v>
-      </c>
-      <c r="E123" s="33" t="s">
-        <v>287</v>
       </c>
       <c r="F123" s="34"/>
       <c r="G123" s="35"/>
@@ -8068,10 +8068,10 @@
         <v>96</v>
       </c>
       <c r="D124" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="E124" s="33" t="s">
         <v>288</v>
-      </c>
-      <c r="E124" s="33" t="s">
-        <v>289</v>
       </c>
       <c r="F124" s="34"/>
       <c r="G124" s="35"/>
@@ -8102,10 +8102,10 @@
         <v>96</v>
       </c>
       <c r="D125" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="E125" s="33" t="s">
         <v>290</v>
-      </c>
-      <c r="E125" s="33" t="s">
-        <v>291</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="35"/>
@@ -8136,10 +8136,10 @@
         <v>96</v>
       </c>
       <c r="D126" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="E126" s="33" t="s">
         <v>292</v>
-      </c>
-      <c r="E126" s="33" t="s">
-        <v>293</v>
       </c>
       <c r="F126" s="34"/>
       <c r="G126" s="35"/>
@@ -8170,10 +8170,10 @@
         <v>96</v>
       </c>
       <c r="D127" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E127" s="33" t="s">
         <v>294</v>
-      </c>
-      <c r="E127" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="F127" s="34"/>
       <c r="G127" s="35"/>
@@ -8204,10 +8204,10 @@
         <v>96</v>
       </c>
       <c r="D128" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E128" s="33" t="s">
         <v>296</v>
-      </c>
-      <c r="E128" s="33" t="s">
-        <v>297</v>
       </c>
       <c r="F128" s="34"/>
       <c r="G128" s="35"/>
@@ -8238,10 +8238,10 @@
         <v>96</v>
       </c>
       <c r="D129" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="E129" s="33" t="s">
         <v>298</v>
-      </c>
-      <c r="E129" s="33" t="s">
-        <v>299</v>
       </c>
       <c r="F129" s="34"/>
       <c r="G129" s="35"/>
@@ -8272,10 +8272,10 @@
         <v>96</v>
       </c>
       <c r="D130" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="E130" s="33" t="s">
         <v>300</v>
-      </c>
-      <c r="E130" s="33" t="s">
-        <v>301</v>
       </c>
       <c r="F130" s="34"/>
       <c r="G130" s="35"/>
@@ -8306,10 +8306,10 @@
         <v>96</v>
       </c>
       <c r="D131" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="E131" s="33" t="s">
         <v>302</v>
-      </c>
-      <c r="E131" s="33" t="s">
-        <v>303</v>
       </c>
       <c r="F131" s="34"/>
       <c r="G131" s="35"/>
@@ -8340,10 +8340,10 @@
         <v>96</v>
       </c>
       <c r="D132" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E132" s="33" t="s">
         <v>304</v>
-      </c>
-      <c r="E132" s="33" t="s">
-        <v>305</v>
       </c>
       <c r="F132" s="34"/>
       <c r="G132" s="35"/>
@@ -8374,10 +8374,10 @@
         <v>96</v>
       </c>
       <c r="D133" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="E133" s="33" t="s">
         <v>306</v>
-      </c>
-      <c r="E133" s="33" t="s">
-        <v>307</v>
       </c>
       <c r="F133" s="34"/>
       <c r="G133" s="35"/>
@@ -8408,10 +8408,10 @@
         <v>96</v>
       </c>
       <c r="D134" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="E134" s="33" t="s">
         <v>308</v>
-      </c>
-      <c r="E134" s="33" t="s">
-        <v>309</v>
       </c>
       <c r="F134" s="34"/>
       <c r="G134" s="35"/>
@@ -8442,10 +8442,10 @@
         <v>96</v>
       </c>
       <c r="D135" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="E135" s="33" t="s">
         <v>310</v>
-      </c>
-      <c r="E135" s="33" t="s">
-        <v>311</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="35"/>
@@ -8476,10 +8476,10 @@
         <v>96</v>
       </c>
       <c r="D136" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="E136" s="33" t="s">
         <v>312</v>
-      </c>
-      <c r="E136" s="33" t="s">
-        <v>313</v>
       </c>
       <c r="F136" s="34"/>
       <c r="G136" s="35"/>
@@ -8510,10 +8510,10 @@
         <v>96</v>
       </c>
       <c r="D137" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="E137" s="33" t="s">
         <v>314</v>
-      </c>
-      <c r="E137" s="33" t="s">
-        <v>315</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="35"/>
@@ -8544,10 +8544,10 @@
         <v>96</v>
       </c>
       <c r="D138" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="E138" s="33" t="s">
         <v>316</v>
-      </c>
-      <c r="E138" s="33" t="s">
-        <v>317</v>
       </c>
       <c r="F138" s="34"/>
       <c r="G138" s="35"/>
@@ -8578,10 +8578,10 @@
         <v>96</v>
       </c>
       <c r="D139" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="E139" s="33" t="s">
         <v>318</v>
-      </c>
-      <c r="E139" s="33" t="s">
-        <v>319</v>
       </c>
       <c r="F139" s="34"/>
       <c r="G139" s="35"/>
@@ -8612,10 +8612,10 @@
         <v>96</v>
       </c>
       <c r="D140" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="E140" s="33" t="s">
         <v>320</v>
-      </c>
-      <c r="E140" s="33" t="s">
-        <v>321</v>
       </c>
       <c r="F140" s="34"/>
       <c r="G140" s="35"/>
@@ -8646,10 +8646,10 @@
         <v>96</v>
       </c>
       <c r="D141" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="E141" s="33" t="s">
         <v>322</v>
-      </c>
-      <c r="E141" s="33" t="s">
-        <v>323</v>
       </c>
       <c r="F141" s="34"/>
       <c r="G141" s="35"/>
@@ -8680,10 +8680,10 @@
         <v>96</v>
       </c>
       <c r="D142" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="E142" s="33" t="s">
         <v>324</v>
-      </c>
-      <c r="E142" s="33" t="s">
-        <v>325</v>
       </c>
       <c r="F142" s="34"/>
       <c r="G142" s="35"/>
@@ -8714,10 +8714,10 @@
         <v>96</v>
       </c>
       <c r="D143" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E143" s="33" t="s">
         <v>326</v>
-      </c>
-      <c r="E143" s="33" t="s">
-        <v>327</v>
       </c>
       <c r="F143" s="34"/>
       <c r="G143" s="35"/>
@@ -8748,10 +8748,10 @@
         <v>96</v>
       </c>
       <c r="D144" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="E144" s="33" t="s">
         <v>328</v>
-      </c>
-      <c r="E144" s="33" t="s">
-        <v>329</v>
       </c>
       <c r="F144" s="34"/>
       <c r="G144" s="35"/>
@@ -8782,10 +8782,10 @@
         <v>96</v>
       </c>
       <c r="D145" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="E145" s="33" t="s">
         <v>330</v>
-      </c>
-      <c r="E145" s="33" t="s">
-        <v>331</v>
       </c>
       <c r="F145" s="34"/>
       <c r="G145" s="35"/>
@@ -8816,10 +8816,10 @@
         <v>96</v>
       </c>
       <c r="D146" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="E146" s="33" t="s">
         <v>332</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>333</v>
       </c>
       <c r="F146" s="34"/>
       <c r="G146" s="35"/>
@@ -8850,10 +8850,10 @@
         <v>96</v>
       </c>
       <c r="D147" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="E147" s="33" t="s">
         <v>334</v>
-      </c>
-      <c r="E147" s="33" t="s">
-        <v>335</v>
       </c>
       <c r="F147" s="34"/>
       <c r="G147" s="35"/>
@@ -23243,6 +23243,11 @@
     <filterColumn colId="2">
       <filters>
         <filter val="RAD"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="NO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -23311,10 +23316,10 @@
         <v>25</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>336</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23322,13 +23327,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>339</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23336,13 +23341,13 @@
         <v>57</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>341</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23350,13 +23355,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>343</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23364,13 +23369,13 @@
         <v>78</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23378,13 +23383,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>347</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23392,13 +23397,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>349</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24421,7 +24426,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>69</v>
@@ -24429,7 +24434,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B3" s="45" t="s">
         <v>74</v>
